--- a/cmd/api/plan.xlsx
+++ b/cmd/api/plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="312">
   <si>
     <t>№ site</t>
   </si>
@@ -375,15 +375,9 @@
     <t>PL_77_12590</t>
   </si>
   <si>
-    <t>77_12590</t>
-  </si>
-  <si>
     <t>PL_77_77060</t>
   </si>
   <si>
-    <t>77_77060</t>
-  </si>
-  <si>
     <t>PL_77_77055</t>
   </si>
   <si>
@@ -933,9 +927,6 @@
     <t>PL_77_661</t>
   </si>
   <si>
-    <t>77_00661</t>
-  </si>
-  <si>
     <t>PL_77_11522</t>
   </si>
   <si>
@@ -973,6 +964,12 @@
   </si>
   <si>
     <t>Person5</t>
+  </si>
+  <si>
+    <t>Person20</t>
+  </si>
+  <si>
+    <t>123125t</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1373,7 @@
   <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F157" sqref="F157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1425,8 +1422,8 @@
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>113</v>
+      <c r="B2" s="2">
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1442,7 +1439,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>111</v>
@@ -1450,10 +1447,10 @@
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="B3" s="2">
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1469,7 +1466,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>111</v>
@@ -1477,10 +1474,10 @@
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1496,7 +1493,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>111</v>
@@ -1504,10 +1501,10 @@
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1523,7 +1520,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>111</v>
@@ -1531,10 +1528,10 @@
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1550,7 +1547,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>111</v>
@@ -1558,10 +1555,10 @@
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1577,7 +1574,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>111</v>
@@ -1585,13 +1582,13 @@
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
@@ -1604,21 +1601,21 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -1631,21 +1628,21 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -1658,10 +1655,10 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1685,7 +1682,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -1710,7 +1707,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -1735,7 +1732,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -1760,7 +1757,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -1785,7 +1782,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -1810,7 +1807,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -1835,7 +1832,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1860,7 +1857,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -1885,7 +1882,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -1910,7 +1907,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K20" s="2"/>
     </row>
@@ -1935,7 +1932,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -1960,7 +1957,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K22" s="2"/>
     </row>
@@ -1985,7 +1982,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K23" s="2"/>
     </row>
@@ -2010,7 +2007,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K24" s="2"/>
     </row>
@@ -2035,7 +2032,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K25" s="2"/>
     </row>
@@ -2060,7 +2057,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K26" s="2"/>
     </row>
@@ -2085,7 +2082,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K27" s="2"/>
     </row>
@@ -2110,7 +2107,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K28" s="2"/>
     </row>
@@ -2135,7 +2132,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K29" s="2"/>
     </row>
@@ -2160,7 +2157,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K30" s="2"/>
     </row>
@@ -2185,7 +2182,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K31" s="2"/>
     </row>
@@ -2210,7 +2207,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K32" s="2"/>
     </row>
@@ -2235,7 +2232,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K33" s="2"/>
     </row>
@@ -2260,7 +2257,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K34" s="2"/>
     </row>
@@ -2285,7 +2282,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K35" s="2"/>
     </row>
@@ -2310,7 +2307,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K36" s="2"/>
     </row>
@@ -2335,7 +2332,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K37" s="2"/>
     </row>
@@ -2360,7 +2357,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K38" s="2"/>
     </row>
@@ -2385,7 +2382,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K39" s="2"/>
     </row>
@@ -2410,7 +2407,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K40" s="2"/>
     </row>
@@ -2435,7 +2432,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K41" s="2"/>
     </row>
@@ -2460,7 +2457,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K42" s="2"/>
     </row>
@@ -2485,7 +2482,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K43" s="2"/>
     </row>
@@ -2510,7 +2507,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K44" s="2"/>
     </row>
@@ -2535,7 +2532,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K45" s="2"/>
     </row>
@@ -2560,7 +2557,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K46" s="2"/>
     </row>
@@ -2585,7 +2582,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K47" s="2"/>
     </row>
@@ -2610,7 +2607,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K48" s="2"/>
     </row>
@@ -2635,7 +2632,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K49" s="2"/>
     </row>
@@ -2660,7 +2657,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K50" s="2"/>
     </row>
@@ -2685,7 +2682,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K51" s="2"/>
     </row>
@@ -2710,7 +2707,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K52" s="2"/>
     </row>
@@ -2735,7 +2732,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K53" s="2"/>
     </row>
@@ -2760,7 +2757,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K54" s="2"/>
     </row>
@@ -2785,19 +2782,19 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>23</v>
@@ -2810,19 +2807,19 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>23</v>
@@ -2835,21 +2832,21 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>23</v>
@@ -2862,21 +2859,21 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>23</v>
@@ -2889,21 +2886,21 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>23</v>
@@ -2916,21 +2913,21 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>23</v>
@@ -2943,21 +2940,21 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>23</v>
@@ -2970,19 +2967,19 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>23</v>
@@ -2995,19 +2992,19 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>23</v>
@@ -3020,19 +3017,19 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>23</v>
@@ -3045,19 +3042,19 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>23</v>
@@ -3070,19 +3067,19 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K66" s="2"/>
     </row>
     <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>23</v>
@@ -3095,19 +3092,19 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>23</v>
@@ -3120,16 +3117,16 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K68" s="2"/>
     </row>
     <row r="69" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>22</v>
@@ -3145,16 +3142,16 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>22</v>
@@ -3170,16 +3167,16 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>22</v>
@@ -3195,16 +3192,16 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>22</v>
@@ -3220,18 +3217,18 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>22</v>
@@ -3247,16 +3244,16 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K73" s="2"/>
     </row>
     <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
@@ -3272,16 +3269,16 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
@@ -3297,16 +3294,16 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
@@ -3322,16 +3319,16 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
@@ -3347,16 +3344,16 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>22</v>
@@ -3372,16 +3369,16 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>22</v>
@@ -3397,16 +3394,16 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>22</v>
@@ -3422,16 +3419,16 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>22</v>
@@ -3447,16 +3444,16 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>22</v>
@@ -3472,16 +3469,16 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>22</v>
@@ -3497,16 +3494,16 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>22</v>
@@ -3522,16 +3519,16 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>22</v>
@@ -3547,16 +3544,16 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>22</v>
@@ -3572,16 +3569,16 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K86" s="2"/>
     </row>
     <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>22</v>
@@ -3597,16 +3594,16 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>22</v>
@@ -3622,16 +3619,16 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>22</v>
@@ -3647,16 +3644,16 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>22</v>
@@ -3672,16 +3669,16 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>22</v>
@@ -3697,16 +3694,16 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>22</v>
@@ -3722,19 +3719,19 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>31</v>
@@ -3747,19 +3744,19 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K93" s="2"/>
     </row>
     <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>31</v>
@@ -3772,19 +3769,19 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K94" s="2"/>
     </row>
     <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>31</v>
@@ -3797,19 +3794,19 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K95" s="2"/>
     </row>
     <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>31</v>
@@ -3822,19 +3819,19 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K96" s="2"/>
     </row>
     <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>31</v>
@@ -3847,21 +3844,21 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>31</v>
@@ -3874,19 +3871,19 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>31</v>
@@ -3899,19 +3896,19 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>31</v>
@@ -3924,19 +3921,19 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K100" s="2"/>
     </row>
     <row r="101" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>31</v>
@@ -3949,19 +3946,19 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K101" s="2"/>
     </row>
     <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>31</v>
@@ -3974,19 +3971,19 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K102" s="2"/>
     </row>
     <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>31</v>
@@ -3999,19 +3996,19 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K103" s="2"/>
     </row>
     <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>31</v>
@@ -4024,7 +4021,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K104" s="2"/>
     </row>
@@ -4049,7 +4046,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K105" s="2"/>
     </row>
@@ -4074,7 +4071,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K106" s="2"/>
     </row>
@@ -4099,7 +4096,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K107" s="2"/>
     </row>
@@ -4124,7 +4121,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K108" s="2"/>
     </row>
@@ -4149,7 +4146,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K109" s="2"/>
     </row>
@@ -4174,7 +4171,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K110" s="2"/>
     </row>
@@ -4199,16 +4196,16 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>22</v>
@@ -4224,16 +4221,16 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>22</v>
@@ -4249,16 +4246,16 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K113" s="2"/>
     </row>
     <row r="114" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>22</v>
@@ -4274,16 +4271,16 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>22</v>
@@ -4299,16 +4296,16 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>22</v>
@@ -4324,16 +4321,16 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K116" s="2"/>
     </row>
     <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>22</v>
@@ -4349,16 +4346,16 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K117" s="2"/>
     </row>
     <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>22</v>
@@ -4374,16 +4371,16 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K118" s="2"/>
     </row>
     <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>22</v>
@@ -4399,18 +4396,18 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>22</v>
@@ -4426,16 +4423,16 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K120" s="2"/>
     </row>
     <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>22</v>
@@ -4451,16 +4448,16 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K121" s="2"/>
     </row>
     <row r="122" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>22</v>
@@ -4476,16 +4473,16 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K122" s="2"/>
     </row>
     <row r="123" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>22</v>
@@ -4501,16 +4498,16 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K123" s="2"/>
     </row>
     <row r="124" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>22</v>
@@ -4526,16 +4523,16 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K124" s="2"/>
     </row>
     <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>22</v>
@@ -4551,16 +4548,16 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K125" s="2"/>
     </row>
     <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>22</v>
@@ -4576,16 +4573,16 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K126" s="2"/>
     </row>
     <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>22</v>
@@ -4601,18 +4598,18 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>22</v>
@@ -4628,18 +4625,18 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>22</v>
@@ -4655,18 +4652,18 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>22</v>
@@ -4682,18 +4679,18 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>22</v>
@@ -4709,18 +4706,18 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>22</v>
@@ -4736,21 +4733,21 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>23</v>
@@ -4763,19 +4760,19 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K133" s="2"/>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>23</v>
@@ -4788,19 +4785,19 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K134" s="2"/>
     </row>
     <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>31</v>
@@ -4813,21 +4810,21 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>31</v>
@@ -4840,21 +4837,21 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>31</v>
@@ -4867,21 +4864,21 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>31</v>
@@ -4894,21 +4891,21 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>31</v>
@@ -4921,21 +4918,21 @@
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>31</v>
@@ -4948,21 +4945,21 @@
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>31</v>
@@ -4975,19 +4972,19 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K141" s="2"/>
     </row>
     <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>31</v>
@@ -5000,19 +4997,19 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K142" s="2"/>
     </row>
     <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>31</v>
@@ -5025,19 +5022,19 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K143" s="2"/>
     </row>
     <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>31</v>
@@ -5050,19 +5047,19 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K144" s="2"/>
     </row>
     <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>31</v>
@@ -5075,7 +5072,7 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K145" s="2"/>
     </row>

--- a/cmd/api/plan.xlsx
+++ b/cmd/api/plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Админ\go\src\excel-merger\cmd\api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Админ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="313">
   <si>
     <t>№ site</t>
   </si>
@@ -375,9 +375,15 @@
     <t>PL_77_12590</t>
   </si>
   <si>
+    <t>77_12590</t>
+  </si>
+  <si>
     <t>PL_77_77060</t>
   </si>
   <si>
+    <t>77_77060</t>
+  </si>
+  <si>
     <t>PL_77_77055</t>
   </si>
   <si>
@@ -927,6 +933,9 @@
     <t>PL_77_661</t>
   </si>
   <si>
+    <t>77_00661</t>
+  </si>
+  <si>
     <t>PL_77_11522</t>
   </si>
   <si>
@@ -964,12 +973,6 @@
   </si>
   <si>
     <t>Person5</t>
-  </si>
-  <si>
-    <t>Person20</t>
-  </si>
-  <si>
-    <t>123125t</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1376,7 @@
   <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1422,8 +1425,8 @@
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="2">
-        <v>123</v>
+      <c r="B2" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1439,7 +1442,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>111</v>
@@ -1447,10 +1450,10 @@
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="2">
-        <v>123</v>
+        <v>114</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1466,7 +1469,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>111</v>
@@ -1474,10 +1477,10 @@
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1493,7 +1496,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>111</v>
@@ -1501,10 +1504,10 @@
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1520,7 +1523,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>111</v>
@@ -1528,10 +1531,10 @@
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1547,7 +1550,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>111</v>
@@ -1555,10 +1558,10 @@
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1574,7 +1577,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>111</v>
@@ -1582,13 +1585,13 @@
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
@@ -1601,21 +1604,21 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -1628,21 +1631,21 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -1655,10 +1658,10 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1682,7 +1685,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -1707,7 +1710,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -1732,7 +1735,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -1757,7 +1760,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -1782,7 +1785,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -1807,7 +1810,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -1832,7 +1835,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1857,7 +1860,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -1882,7 +1885,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -1907,7 +1910,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K20" s="2"/>
     </row>
@@ -1932,7 +1935,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -1957,7 +1960,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K22" s="2"/>
     </row>
@@ -1982,7 +1985,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K23" s="2"/>
     </row>
@@ -2007,7 +2010,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K24" s="2"/>
     </row>
@@ -2032,7 +2035,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K25" s="2"/>
     </row>
@@ -2057,7 +2060,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K26" s="2"/>
     </row>
@@ -2082,7 +2085,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K27" s="2"/>
     </row>
@@ -2107,7 +2110,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K28" s="2"/>
     </row>
@@ -2132,7 +2135,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K29" s="2"/>
     </row>
@@ -2157,7 +2160,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K30" s="2"/>
     </row>
@@ -2182,7 +2185,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K31" s="2"/>
     </row>
@@ -2207,7 +2210,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K32" s="2"/>
     </row>
@@ -2232,7 +2235,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K33" s="2"/>
     </row>
@@ -2257,7 +2260,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K34" s="2"/>
     </row>
@@ -2282,7 +2285,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K35" s="2"/>
     </row>
@@ -2307,7 +2310,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K36" s="2"/>
     </row>
@@ -2332,7 +2335,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K37" s="2"/>
     </row>
@@ -2357,7 +2360,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K38" s="2"/>
     </row>
@@ -2382,7 +2385,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K39" s="2"/>
     </row>
@@ -2407,7 +2410,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K40" s="2"/>
     </row>
@@ -2432,7 +2435,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K41" s="2"/>
     </row>
@@ -2457,7 +2460,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K42" s="2"/>
     </row>
@@ -2482,7 +2485,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K43" s="2"/>
     </row>
@@ -2507,7 +2510,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K44" s="2"/>
     </row>
@@ -2532,7 +2535,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K45" s="2"/>
     </row>
@@ -2557,7 +2560,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K46" s="2"/>
     </row>
@@ -2582,7 +2585,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K47" s="2"/>
     </row>
@@ -2607,7 +2610,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K48" s="2"/>
     </row>
@@ -2632,7 +2635,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K49" s="2"/>
     </row>
@@ -2657,7 +2660,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K50" s="2"/>
     </row>
@@ -2682,7 +2685,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K51" s="2"/>
     </row>
@@ -2707,7 +2710,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K52" s="2"/>
     </row>
@@ -2732,7 +2735,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K53" s="2"/>
     </row>
@@ -2757,7 +2760,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K54" s="2"/>
     </row>
@@ -2782,19 +2785,19 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>23</v>
@@ -2807,19 +2810,19 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>23</v>
@@ -2832,21 +2835,21 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>23</v>
@@ -2859,21 +2862,21 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>23</v>
@@ -2886,21 +2889,21 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>23</v>
@@ -2913,21 +2916,21 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>23</v>
@@ -2940,21 +2943,21 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>23</v>
@@ -2967,19 +2970,19 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>23</v>
@@ -2992,19 +2995,19 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>23</v>
@@ -3017,19 +3020,19 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>23</v>
@@ -3042,19 +3045,19 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>23</v>
@@ -3067,19 +3070,19 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K66" s="2"/>
     </row>
     <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>23</v>
@@ -3092,19 +3095,19 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>23</v>
@@ -3117,16 +3120,16 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K68" s="2"/>
     </row>
     <row r="69" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>22</v>
@@ -3142,16 +3145,16 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>22</v>
@@ -3167,16 +3170,16 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>22</v>
@@ -3192,16 +3195,16 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>22</v>
@@ -3217,18 +3220,18 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>22</v>
@@ -3244,16 +3247,16 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K73" s="2"/>
     </row>
     <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
@@ -3269,16 +3272,16 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
@@ -3294,16 +3297,16 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
@@ -3319,16 +3322,16 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
@@ -3344,16 +3347,16 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>22</v>
@@ -3369,16 +3372,16 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>22</v>
@@ -3394,16 +3397,16 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>22</v>
@@ -3419,16 +3422,16 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>22</v>
@@ -3444,16 +3447,16 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>22</v>
@@ -3469,16 +3472,16 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>22</v>
@@ -3494,16 +3497,16 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>22</v>
@@ -3519,16 +3522,16 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>22</v>
@@ -3544,16 +3547,16 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>22</v>
@@ -3569,16 +3572,16 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K86" s="2"/>
     </row>
     <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>22</v>
@@ -3594,16 +3597,16 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>22</v>
@@ -3619,16 +3622,16 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>22</v>
@@ -3644,16 +3647,16 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>22</v>
@@ -3669,16 +3672,16 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>22</v>
@@ -3694,16 +3697,16 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>22</v>
@@ -3719,19 +3722,19 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>31</v>
@@ -3744,19 +3747,19 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K93" s="2"/>
     </row>
     <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>31</v>
@@ -3769,19 +3772,19 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K94" s="2"/>
     </row>
     <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>31</v>
@@ -3794,19 +3797,19 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K95" s="2"/>
     </row>
     <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>31</v>
@@ -3819,19 +3822,19 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K96" s="2"/>
     </row>
     <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>31</v>
@@ -3844,21 +3847,21 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>31</v>
@@ -3871,19 +3874,19 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>31</v>
@@ -3896,19 +3899,19 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>31</v>
@@ -3921,19 +3924,19 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K100" s="2"/>
     </row>
     <row r="101" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>31</v>
@@ -3946,19 +3949,19 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K101" s="2"/>
     </row>
     <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>31</v>
@@ -3971,19 +3974,19 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K102" s="2"/>
     </row>
     <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>31</v>
@@ -3996,19 +3999,19 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K103" s="2"/>
     </row>
     <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>31</v>
@@ -4021,7 +4024,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K104" s="2"/>
     </row>
@@ -4046,7 +4049,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K105" s="2"/>
     </row>
@@ -4071,7 +4074,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K106" s="2"/>
     </row>
@@ -4096,7 +4099,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K107" s="2"/>
     </row>
@@ -4121,7 +4124,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K108" s="2"/>
     </row>
@@ -4146,7 +4149,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K109" s="2"/>
     </row>
@@ -4171,7 +4174,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K110" s="2"/>
     </row>
@@ -4196,16 +4199,16 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>22</v>
@@ -4221,16 +4224,16 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>22</v>
@@ -4246,16 +4249,16 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K113" s="2"/>
     </row>
     <row r="114" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>22</v>
@@ -4271,16 +4274,16 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>22</v>
@@ -4296,16 +4299,16 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>22</v>
@@ -4321,16 +4324,16 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K116" s="2"/>
     </row>
     <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>22</v>
@@ -4346,16 +4349,16 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K117" s="2"/>
     </row>
     <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>22</v>
@@ -4371,16 +4374,16 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K118" s="2"/>
     </row>
     <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>22</v>
@@ -4396,18 +4399,18 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>22</v>
@@ -4423,16 +4426,16 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K120" s="2"/>
     </row>
     <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>22</v>
@@ -4448,16 +4451,16 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K121" s="2"/>
     </row>
     <row r="122" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>22</v>
@@ -4473,16 +4476,16 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K122" s="2"/>
     </row>
     <row r="123" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>22</v>
@@ -4498,16 +4501,16 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K123" s="2"/>
     </row>
     <row r="124" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>22</v>
@@ -4523,16 +4526,16 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K124" s="2"/>
     </row>
     <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>22</v>
@@ -4548,16 +4551,16 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K125" s="2"/>
     </row>
     <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>22</v>
@@ -4573,16 +4576,16 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K126" s="2"/>
     </row>
     <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>22</v>
@@ -4598,18 +4601,18 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>22</v>
@@ -4625,18 +4628,18 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>22</v>
@@ -4652,18 +4655,18 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>22</v>
@@ -4679,18 +4682,18 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>22</v>
@@ -4706,18 +4709,18 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>22</v>
@@ -4733,21 +4736,21 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>23</v>
@@ -4760,19 +4763,19 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K133" s="2"/>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>23</v>
@@ -4785,19 +4788,19 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K134" s="2"/>
     </row>
     <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>31</v>
@@ -4810,21 +4813,21 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>31</v>
@@ -4837,21 +4840,21 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>31</v>
@@ -4864,21 +4867,21 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>31</v>
@@ -4891,21 +4894,21 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>31</v>
@@ -4918,21 +4921,21 @@
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>31</v>
@@ -4945,21 +4948,21 @@
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>31</v>
@@ -4972,19 +4975,19 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K141" s="2"/>
     </row>
     <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>31</v>
@@ -4997,19 +5000,19 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K142" s="2"/>
     </row>
     <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>31</v>
@@ -5022,19 +5025,19 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K143" s="2"/>
     </row>
     <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>31</v>
@@ -5047,19 +5050,19 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K144" s="2"/>
     </row>
     <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>31</v>
@@ -5072,7 +5075,7 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K145" s="2"/>
     </row>
